--- a/Graph Data Visualized.xlsx
+++ b/Graph Data Visualized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahgonsenhauser/Dropbox/UCT/CSC2001F/Assignment5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E7DF84-A323-1D4C-88C9-88D98D8E92D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5459307-EF70-2545-A481-50B0C0EA1EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2F94F319-43DA-CF4F-8B69-945FD352020A}"/>
   </bookViews>
@@ -238,64 +238,64 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,76 +340,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>80</c:v>
@@ -457,7 +457,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -472,64 +472,64 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,79 +574,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>66</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>69</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,79 +691,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>71</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>89</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>81</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>94</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,79 +808,79 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.043650362227254</c:v>
+                  <c:v>26.020599913279625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.804562952784067</c:v>
+                  <c:v>45.536049848239344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.565475543340881</c:v>
+                  <c:v>65.051499783199063</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.326388133897694</c:v>
+                  <c:v>83.2659197224948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.087300724454508</c:v>
+                  <c:v>104.0823996531185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.04119982655925</c:v>
+                  <c:v>27.958800173440753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65.051499783199063</c:v>
+                  <c:v>51.699243915188184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78.061799739838875</c:v>
+                  <c:v>73.856062735983116</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.072099696478688</c:v>
+                  <c:v>94.535760302058392</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104.0823996531185</c:v>
+                  <c:v>118.16970037757299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.917600346881507</c:v>
+                  <c:v>29.24795995797912</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69.897000433601889</c:v>
+                  <c:v>54.470587526855056</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.876400520322264</c:v>
+                  <c:v>79.553230351324956</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.855800607042639</c:v>
+                  <c:v>102.53183944498959</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>111.83520069376301</c:v>
+                  <c:v>128.16479930623697</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.084850188786497</c:v>
+                  <c:v>29.827233876685455</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>73.856062735983116</c:v>
+                  <c:v>57.171395945285525</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>88.627275283179742</c:v>
+                  <c:v>84.062061868779352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>103.39848783037637</c:v>
+                  <c:v>108.7340802775052</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>118.16970037757299</c:v>
+                  <c:v>135.9176003468815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1221,64 +1221,64 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,76 +1323,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>80</c:v>
@@ -1440,79 +1440,79 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.043650362227254</c:v>
+                  <c:v>26.020599913279625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.804562952784067</c:v>
+                  <c:v>45.536049848239344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.565475543340881</c:v>
+                  <c:v>65.051499783199063</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.326388133897694</c:v>
+                  <c:v>83.2659197224948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.087300724454508</c:v>
+                  <c:v>104.0823996531185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.04119982655925</c:v>
+                  <c:v>27.958800173440753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65.051499783199063</c:v>
+                  <c:v>51.699243915188184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78.061799739838875</c:v>
+                  <c:v>73.856062735983116</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.072099696478688</c:v>
+                  <c:v>94.535760302058392</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104.0823996531185</c:v>
+                  <c:v>118.16970037757299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.917600346881507</c:v>
+                  <c:v>29.24795995797912</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69.897000433601889</c:v>
+                  <c:v>54.470587526855056</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.876400520322264</c:v>
+                  <c:v>79.553230351324956</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.855800607042639</c:v>
+                  <c:v>102.53183944498959</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>111.83520069376301</c:v>
+                  <c:v>128.16479930623697</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.084850188786497</c:v>
+                  <c:v>29.827233876685455</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>73.856062735983116</c:v>
+                  <c:v>57.171395945285525</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>88.627275283179742</c:v>
+                  <c:v>84.062061868779352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>103.39848783037637</c:v>
+                  <c:v>108.7340802775052</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>118.16970037757299</c:v>
+                  <c:v>135.9176003468815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1760,1597 +1760,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>O</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Complexity vs Number of Operations</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vertex Operations</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-C1AD-3B4C-9C22-6C120336BCBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Edge Operations</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-C1AD-3B4C-9C22-6C120336BCBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PQ Operations</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>94</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-C1AD-3B4C-9C22-6C120336BCBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>O Complexity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47.043650362227254</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.804562952784067</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70.565475543340881</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.326388133897694</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>94.087300724454508</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52.04119982655925</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>65.051499783199063</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>78.061799739838875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>91.072099696478688</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>104.0823996531185</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>55.917600346881507</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69.897000433601889</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>83.876400520322264</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>97.855800607042639</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>111.83520069376301</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>59.084850188786497</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>73.856062735983116</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>88.627275283179742</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>103.39848783037637</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>118.16970037757299</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-C1AD-3B4C-9C22-6C120336BCBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vertex Operations</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C1AD-3B4C-9C22-6C120336BCBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Edge Operations</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C1AD-3B4C-9C22-6C120336BCBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PQ Operations</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>94</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C1AD-3B4C-9C22-6C120336BCBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>O Complexity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47.043650362227254</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58.804562952784067</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70.565475543340881</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.326388133897694</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>94.087300724454508</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52.04119982655925</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>65.051499783199063</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>78.061799739838875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>91.072099696478688</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>104.0823996531185</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>55.917600346881507</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69.897000433601889</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>83.876400520322264</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>97.855800607042639</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>111.83520069376301</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>59.084850188786497</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>73.856062735983116</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>88.627275283179742</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>103.39848783037637</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>118.16970037757299</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C1AD-3B4C-9C22-6C120336BCBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="485965856"/>
-        <c:axId val="485967584"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="485965856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="485967584"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="485967584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="485965856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37403455818022752"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PQ Operations</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>94</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A769-4848-91D7-47B4BB0B376A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="688167472"/>
-        <c:axId val="688169744"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="688167472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="35"/>
-          <c:min val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="688169744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="688169744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="688167472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
               <a:t>O Complexity vs PQ Operations</a:t>
             </a:r>
           </a:p>
@@ -3424,79 +1833,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>71</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>89</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>81</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>94</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,79 +1950,79 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.043650362227254</c:v>
+                  <c:v>26.020599913279625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.804562952784067</c:v>
+                  <c:v>45.536049848239344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.565475543340881</c:v>
+                  <c:v>65.051499783199063</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.326388133897694</c:v>
+                  <c:v>83.2659197224948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.087300724454508</c:v>
+                  <c:v>104.0823996531185</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.04119982655925</c:v>
+                  <c:v>27.958800173440753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65.051499783199063</c:v>
+                  <c:v>51.699243915188184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78.061799739838875</c:v>
+                  <c:v>73.856062735983116</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.072099696478688</c:v>
+                  <c:v>94.535760302058392</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104.0823996531185</c:v>
+                  <c:v>118.16970037757299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.917600346881507</c:v>
+                  <c:v>29.24795995797912</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69.897000433601889</c:v>
+                  <c:v>54.470587526855056</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.876400520322264</c:v>
+                  <c:v>79.553230351324956</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.855800607042639</c:v>
+                  <c:v>102.53183944498959</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>111.83520069376301</c:v>
+                  <c:v>128.16479930623697</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.084850188786497</c:v>
+                  <c:v>29.827233876685455</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>73.856062735983116</c:v>
+                  <c:v>57.171395945285525</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>88.627275283179742</c:v>
+                  <c:v>84.062061868779352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>103.39848783037637</c:v>
+                  <c:v>108.7340802775052</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>118.16970037757299</c:v>
+                  <c:v>135.9176003468815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,6 +2149,1203 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="950187872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PQ Operations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-338D-1C43-A1F3-1373ADD015B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="349432976"/>
+        <c:axId val="349422640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="349432976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349422640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="349422640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349432976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>O</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Complexity vs number of operations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vertex Operations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B103-3B42-8F80-1FB44ABE2F7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Edge Operations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B103-3B42-8F80-1FB44ABE2F7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PQ Operations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B103-3B42-8F80-1FB44ABE2F7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O Complexity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.536049848239344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.051499783199063</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.2659197224948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104.0823996531185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.958800173440753</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.699243915188184</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.856062735983116</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94.535760302058392</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>118.16970037757299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.24795995797912</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54.470587526855056</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.553230351324956</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>102.53183944498959</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.16479930623697</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.827233876685455</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.171395945285525</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84.062061868779352</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>108.7340802775052</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>135.9176003468815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B103-3B42-8F80-1FB44ABE2F7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="354580528"/>
+        <c:axId val="354582800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="354580528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354582800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="354582800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354580528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3986,6 +3592,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5019,7 +4665,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5046,8 +4692,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5127,6 +4773,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5137,6 +4788,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5148,7 +4804,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5168,6 +4824,512 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5534,7 +5696,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6127,22 +6289,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>246541</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>13070</xdr:rowOff>
+      <xdr:colOff>247834</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>691041</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114670</xdr:rowOff>
+      <xdr:colOff>689252</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>181746</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3765B747-A217-20BE-1A79-271B4C154806}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0798F8A7-7C87-4634-4B9F-32245630D21B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6163,22 +6325,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457446</xdr:colOff>
+      <xdr:colOff>287867</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>175828</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>72747</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>157087</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2339991-F620-908B-81FA-714E4615D58D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F841B86C-37E2-4D00-6027-D90D0D01AAEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6199,22 +6361,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>247834</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3206</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>689252</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>181746</xdr:rowOff>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0798F8A7-7C87-4634-4B9F-32245630D21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196F3929-0544-ED02-BED7-046CBE2AD9C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6534,8 +6696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C3C4D1-EB3F-3B46-A9AF-73384413134E}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6583,24 +6745,24 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1">
         <f>C2*LOG(B2)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <f>LOG(F2)</f>
-        <v>1.3979400086720377</v>
+        <v>1.2304489213782739</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -6611,24 +6773,24 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1">
         <f>C3*LOG(B3)</f>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <f>LOG(F3)</f>
-        <v>1.6812412373755872</v>
+        <v>1.505149978319906</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6639,24 +6801,24 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G26" si="0">C4*LOG(B4)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H3:H26" si="1">LOG(F4)</f>
-        <v>1.6127838567197355</v>
+        <f t="shared" ref="H4:H26" si="1">LOG(F4)</f>
+        <v>1.6434526764861874</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -6667,24 +6829,24 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>1.5563025007672873</v>
+        <v>1.5910646070264991</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -6704,7 +6866,7 @@
         <v>80</v>
       </c>
       <c r="F6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -6712,7 +6874,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>1.6334684555795864</v>
+        <v>1.6020599913279623</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6720,27 +6882,27 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>47.043650362227254</v>
+        <v>26.020599913279625</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>1.6127838567197355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -6748,27 +6910,27 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>58.804562952784067</v>
+        <v>45.536049848239344</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>1.5910646070264991</v>
+        <v>1.255272505103306</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6776,27 +6938,27 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F9">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>70.565475543340881</v>
+        <v>65.051499783199063</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>1.7481880270062005</v>
+        <v>1.7993405494535817</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6804,27 +6966,27 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F10">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>82.326388133897694</v>
+        <v>83.2659197224948</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>1.7853298350107671</v>
+        <v>1.7558748556724915</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6832,27 +6994,27 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>80</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>94.087300724454508</v>
+        <v>104.0823996531185</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>1.8195439355418688</v>
+        <v>1.8864907251724818</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -6860,27 +7022,27 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
         <v>20</v>
       </c>
-      <c r="C12">
-        <v>40</v>
-      </c>
       <c r="D12">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>52.04119982655925</v>
+        <v>27.958800173440753</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>1.6812412373755872</v>
+        <v>0.3010299956639812</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -6888,27 +7050,27 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1">
         <f>C13*LOG(B13)</f>
-        <v>65.051499783199063</v>
+        <v>51.699243915188184</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>1.7634279935629373</v>
+        <v>1.5797835966168101</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -6916,27 +7078,27 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>78.061799739838875</v>
+        <v>73.856062735983116</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>1.8061799739838871</v>
+        <v>1.7708520116421442</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -6944,27 +7106,27 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F15">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>91.072099696478688</v>
+        <v>94.535760302058392</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>1.7781512503836436</v>
+        <v>1.9637878273455553</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -6972,27 +7134,27 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>80</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>104.0823996531185</v>
+        <v>118.16970037757299</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>1.9731278535996986</v>
+        <v>1.9777236052888478</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -7000,27 +7162,27 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>55.917600346881507</v>
+        <v>29.24795995797912</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>1.2787536009528289</v>
+        <v>0.3010299956639812</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -7028,27 +7190,27 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>69.897000433601889</v>
+        <v>54.470587526855056</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>1.8808135922807914</v>
+        <v>0.47712125471966244</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -7056,27 +7218,27 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F19">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>83.876400520322264</v>
+        <v>79.553230351324956</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>1.8325089127062364</v>
+        <v>1.8061799739838871</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -7084,27 +7246,27 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E20">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F20">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>97.855800607042639</v>
+        <v>102.53183944498959</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>1.8512583487190752</v>
+        <v>1.9777236052888478</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -7112,27 +7274,27 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>80</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E21">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F21">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>111.83520069376301</v>
+        <v>128.16479930623697</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>1.9493900066449128</v>
+        <v>2.0863598306747484</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -7140,27 +7302,27 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>59.084850188786497</v>
+        <v>29.827233876685455</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>1.4913616938342726</v>
+        <v>0.3010299956639812</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -7168,27 +7330,27 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>73.856062735983116</v>
+        <v>57.171395945285525</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>1.7923916894982539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -7196,27 +7358,27 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>88.627275283179742</v>
+        <v>84.062061868779352</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>1.9084850188786497</v>
+        <v>0.3010299956639812</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -7224,27 +7386,27 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F25">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>103.39848783037637</v>
+        <v>108.7340802775052</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>1.8195439355418688</v>
+        <v>1.6020599913279623</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -7252,27 +7414,27 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>80</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E26">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F26">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>118.16970037757299</v>
+        <v>135.9176003468815</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>1.9731278535996986</v>
+        <v>2.1238516409670858</v>
       </c>
     </row>
   </sheetData>
